--- a/S3 - No-dig fennel/data.xlsx
+++ b/S3 - No-dig fennel/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\My Drive\Play\Gardening\ebg\ebg_repo\S3 - No-dig fennel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CA948E-608C-4AF1-8F39-D0AE7D064BCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB33074C-E863-4622-8E4B-89AE4FBB0FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-10755" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="18">
   <si>
     <t>plant_id</t>
   </si>
@@ -76,6 +76,18 @@
   <si>
     <t>no-dig</t>
   </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>strain</t>
+  </si>
+  <si>
+    <t>Foeniculum vulgare</t>
+  </si>
+  <si>
+    <t>Fennel Finale</t>
+  </si>
 </sst>
 </file>
 
@@ -84,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,6 +109,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -158,6 +178,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,10 +484,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:C19"/>
+      <selection activeCell="L3" sqref="L3:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +501,7 @@
     <col min="8" max="8" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -511,8 +532,14 @@
       <c r="J1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -543,8 +570,14 @@
       <c r="J2">
         <v>600</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -575,8 +608,14 @@
       <c r="J3">
         <v>600</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -607,8 +646,14 @@
       <c r="J4">
         <v>600</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -639,8 +684,14 @@
       <c r="J5">
         <v>600</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -671,8 +722,14 @@
       <c r="J6">
         <v>600</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -703,8 +760,14 @@
       <c r="J7">
         <v>600</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -735,8 +798,14 @@
       <c r="J8">
         <v>600</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -761,8 +830,14 @@
       <c r="J9">
         <v>600</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -787,8 +862,14 @@
       <c r="J10">
         <v>600</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -813,8 +894,14 @@
       <c r="J11">
         <v>600</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -839,8 +926,14 @@
       <c r="J12">
         <v>400</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K12" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -871,8 +964,14 @@
       <c r="J13">
         <v>400</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -899,8 +998,14 @@
       <c r="J14">
         <v>400</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -931,8 +1036,14 @@
       <c r="J15">
         <v>400</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -963,8 +1074,14 @@
       <c r="J16">
         <v>400</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K16" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -995,8 +1112,14 @@
       <c r="J17">
         <v>400</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1027,8 +1150,14 @@
       <c r="J18">
         <v>400</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K18" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1059,8 +1188,14 @@
       <c r="J19">
         <v>400</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K19" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="3"/>
@@ -1068,7 +1203,7 @@
       <c r="G20" s="9"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="3"/>
@@ -1076,7 +1211,7 @@
       <c r="G21" s="9"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="3"/>
@@ -1084,7 +1219,7 @@
       <c r="G22" s="9"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="3"/>
@@ -1092,7 +1227,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="3"/>
@@ -1100,7 +1235,7 @@
       <c r="G24" s="9"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="3"/>
@@ -1108,7 +1243,7 @@
       <c r="G25" s="9"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="3"/>
@@ -1116,7 +1251,7 @@
       <c r="G26" s="9"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="3"/>
@@ -1124,7 +1259,7 @@
       <c r="G27" s="9"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="3"/>
@@ -1132,7 +1267,7 @@
       <c r="G28" s="9"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="3"/>
@@ -1140,7 +1275,7 @@
       <c r="G29" s="9"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="3"/>
@@ -1148,7 +1283,7 @@
       <c r="G30" s="9"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="3"/>
@@ -1156,7 +1291,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="3"/>
